--- a/gas_phase_hcl_saop.xlsx
+++ b/gas_phase_hcl_saop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E490A50-2806-9541-8A26-2CE71541B748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA907C-4157-5944-B41E-E16F2F792685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E29"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,19 +435,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2764.5031269999999</v>
+        <v>2764.5780420000001</v>
       </c>
       <c r="B6">
-        <v>253.9341072</v>
+        <v>253.9402216</v>
       </c>
       <c r="C6">
-        <v>193.23699999999999</v>
+        <v>193.24799999999999</v>
       </c>
       <c r="D6">
-        <v>194.07123989999999</v>
+        <v>194.08235110000001</v>
       </c>
       <c r="E6">
-        <v>192.4028242</v>
+        <v>192.41388810000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>2764.578035</v>
       </c>
       <c r="B16">
-        <v>253.9341072</v>
+        <v>253.9402216</v>
       </c>
       <c r="C16">
         <v>193.24799999999999</v>
@@ -642,7 +642,7 @@
         <v>2764.578035</v>
       </c>
       <c r="B18">
-        <v>253.94021939999999</v>
+        <v>253.9402216</v>
       </c>
       <c r="C18">
         <v>193.24799999999999</v>
@@ -761,7 +761,7 @@
         <v>2764.578035</v>
       </c>
       <c r="B25">
-        <v>253.9341072</v>
+        <v>253.9402216</v>
       </c>
       <c r="C25">
         <v>193.24799999999999</v>
@@ -795,7 +795,7 @@
         <v>2764.5780380000001</v>
       </c>
       <c r="B27">
-        <v>253.94021939999999</v>
+        <v>253.9402216</v>
       </c>
       <c r="C27">
         <v>193.24799999999999</v>
